--- a/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/Arealregnskap_Vestfold_2023_oppdatert_20240426.xlsx
+++ b/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/Arealregnskap_Vestfold_2023_oppdatert_20240426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:40009_{0DF23DBC-C9D4-4388-9A72-12458720E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8AB306-EADB-4280-AF3F-2781F2989CC9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{0DF23DBC-C9D4-4388-9A72-12458720E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF91148-E953-4F1F-9C1B-28653E4C80C2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="988">
   <si>
     <t>Færder</t>
   </si>
@@ -2700,9 +2700,6 @@
     <t>12 Blå/grønnstruktur,Hav,31</t>
   </si>
   <si>
-    <t>16 Havner og småbåthavner,Samferdsel,10</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Bebygd,15</t>
   </si>
   <si>
@@ -2733,9 +2730,6 @@
     <t>06 Næringsvirksomhet,Åpen fastmark,99</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Åpen fastmark,180</t>
-  </si>
-  <si>
     <t>08 Kombinerte formål,Myr,0</t>
   </si>
   <si>
@@ -2751,9 +2745,6 @@
     <t>11 Samferdselsanlegg,Åpen fastmark,65</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Bebygd,11747</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Samferdsel,546</t>
   </si>
   <si>
@@ -2778,9 +2769,6 @@
     <t>03 Tjenesteyting,Bebygd,1263</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Samferdsel,142</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Fulldyrka jord,114</t>
   </si>
   <si>
@@ -2799,30 +2787,15 @@
     <t>04 Handel,Samferdsel,1</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Bebygd,2366</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Samferdsel,249</t>
-  </si>
-  <si>
     <t>06 Næringsvirksomhet,Fulldyrka jord,72</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Skog,1408</t>
-  </si>
-  <si>
     <t>07 Råstoffutvinning,Samferdsel,18</t>
   </si>
   <si>
     <t>07 Råstoffutvinning,Skog,198</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Bebygd,1112</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Samferdsel,102</t>
-  </si>
-  <si>
     <t>08 Kombinerte formål,Fulldyrka jord,124</t>
   </si>
   <si>
@@ -2832,9 +2805,6 @@
     <t>08 Kombinerte formål,Skog,186</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Åpen fastmark,250</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Bebygd,334</t>
   </si>
   <si>
@@ -2880,42 +2850,24 @@
     <t>11 Samferdselsanlegg,Innmarksbeite,17</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Skog,622</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Åpen fastmark,972</t>
   </si>
   <si>
     <t>11 Samferdselsanlegg,Myr,18</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Bebygd,947</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Samferdsel,262</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Fulldyrka jord,206</t>
   </si>
   <si>
     <t>12 Blå/grønnstruktur,Skog,3431</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Åpen fastmark,850</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Myr,123</t>
   </si>
   <si>
     <t>12 Blå/grønnstruktur,Ferskvann,17</t>
   </si>
   <si>
-    <t>14 LNFR,Bebygd,7878</t>
-  </si>
-  <si>
-    <t>14 LNFR,Samferdsel,2980</t>
-  </si>
-  <si>
     <t>14 LNFR,Fulldyrka jord,113049</t>
   </si>
   <si>
@@ -2925,9 +2877,6 @@
     <t>14 LNFR,Innmarksbeite,2935</t>
   </si>
   <si>
-    <t>14 LNFR,Skog,143075</t>
-  </si>
-  <si>
     <t>14 LNFR,Åpen fastmark,3705</t>
   </si>
   <si>
@@ -2952,15 +2901,9 @@
     <t>15 LNFR spredt,Ferskvann,1</t>
   </si>
   <si>
-    <t>16 Havner og småbåthavner,Hav,274</t>
-  </si>
-  <si>
     <t>17 Sjø og vassdrag, flerbruk,Ferskvann,4187</t>
   </si>
   <si>
-    <t>17 Sjø og vassdrag, flerbruk,Hav,53491</t>
-  </si>
-  <si>
     <t>19 Udefinert,Bebygd,132</t>
   </si>
   <si>
@@ -2980,6 +2923,72 @@
   </si>
   <si>
     <t>19 Udefinert,Ferskvann,4</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Bebygd,11744</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Samferdsel,130</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Bebygd,2368</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Samferdsel,239</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Skog,1409</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Åpen fastmark,136</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Bebygd,1169</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Samferdsel,128</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Åpen fastmark,247</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Skog,621</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Bebygd,932</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Samferdsel,248</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Åpen fastmark,853</t>
+  </si>
+  <si>
+    <t>14 LNFR,Bebygd,7834</t>
+  </si>
+  <si>
+    <t>14 LNFR,Samferdsel,2974</t>
+  </si>
+  <si>
+    <t>14 LNFR,Skog,143073</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Bebygd,16</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Samferdsel,26</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Innmarksbeite,0</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Hav,280</t>
+  </si>
+  <si>
+    <t>17 Sjø og vassdrag, flerbruk,Hav,53484</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Åpen fastmark,176</t>
   </si>
 </sst>
 </file>
@@ -5723,10 +5732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5761,15 +5770,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>908</v>
+        <v>966</v>
       </c>
       <c r="D4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D5" t="s">
         <v>428</v>
@@ -5777,10 +5786,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -5796,20 +5805,20 @@
         <v>382</v>
       </c>
       <c r="D8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D10" t="s">
         <v>430</v>
@@ -5841,7 +5850,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D14" t="s">
         <v>433</v>
@@ -5849,7 +5858,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D15" t="s">
         <v>740</v>
@@ -5857,7 +5866,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D16" t="s">
         <v>434</v>
@@ -5868,20 +5877,20 @@
         <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>917</v>
+        <v>967</v>
       </c>
       <c r="D19" t="s">
         <v>824</v>
@@ -5889,7 +5898,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D20" t="s">
         <v>437</v>
@@ -5897,10 +5906,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5908,23 +5917,23 @@
         <v>385</v>
       </c>
       <c r="D22" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5953,7 +5962,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D28" t="s">
         <v>441</v>
@@ -5961,7 +5970,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D29" t="s">
         <v>442</v>
@@ -5996,7 +6005,7 @@
         <v>595</v>
       </c>
       <c r="D33" t="s">
-        <v>902</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6004,7 +6013,7 @@
         <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -6012,7 +6021,7 @@
         <v>389</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -6020,7 +6029,7 @@
         <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -6028,7 +6037,7 @@
         <v>391</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -6036,7 +6045,7 @@
         <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>853</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -6044,31 +6053,31 @@
         <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>904</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>924</v>
+        <v>968</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>925</v>
+        <v>969</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -6076,23 +6085,23 @@
         <v>394</v>
       </c>
       <c r="D43" t="s">
-        <v>449</v>
+        <v>903</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>927</v>
+        <v>970</v>
       </c>
       <c r="D44" t="s">
-        <v>905</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>353</v>
+        <v>971</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -6100,7 +6109,7 @@
         <v>232</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>904</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -6108,7 +6117,7 @@
         <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,15 +6125,15 @@
         <v>396</v>
       </c>
       <c r="D48" t="s">
-        <v>907</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="D49" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -6137,7 +6146,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -6147,22 +6156,22 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>930</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>931</v>
+        <v>973</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,17 +6181,17 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>935</v>
+        <v>974</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -6197,27 +6206,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
@@ -6227,27 +6236,27 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -6267,42 +6276,42 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -6317,17 +6326,17 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
@@ -6342,22 +6351,22 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
@@ -6387,37 +6396,37 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
@@ -6432,17 +6441,17 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -6452,17 +6461,17 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
@@ -6472,156 +6481,161 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>806</v>
+        <v>982</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>891</v>
+        <v>983</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>413</v>
+        <v>984</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>975</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>414</v>
+        <v>985</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>416</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>976</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>418</v>
+        <v>986</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>423</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>978</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>425</v>
+        <v>961</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>981</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>427</v>
       </c>
     </row>
